--- a/output/measure/田中希湖_measure.xlsx
+++ b/output/measure/田中希湖_measure.xlsx
@@ -1,126 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
-  <si>
-    <t>レポート年</t>
-  </si>
-  <si>
-    <t>レポート月</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>立ち幅跳びー脚</t>
-  </si>
-  <si>
-    <t>立ち幅跳びー全身</t>
-  </si>
-  <si>
-    <t>バックスクラッチ 右が上</t>
-  </si>
-  <si>
-    <t>バックスクラッチ 左が上</t>
-  </si>
-  <si>
-    <t>倒立 (秒)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">閉眼片足 右 (秒) </t>
-  </si>
-  <si>
-    <t>閉眼片足 (左)</t>
-  </si>
-  <si>
-    <t>Power Max 10秒</t>
-  </si>
-  <si>
-    <t>Power Max 40秒</t>
-  </si>
-  <si>
-    <t>20本ジャンプ (秒)</t>
-  </si>
-  <si>
-    <t>2020年度</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>田中希湖</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,547 +420,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>レポート年</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>レポート月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>立ち幅跳びー脚</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>立ち幅跳びー全身</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>バックスクラッチ 右が上</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>バックスクラッチ 左が上</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>倒立 (秒)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">閉眼片足 右 (秒) </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>閉眼片足 (左)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Power Max 10秒</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Power Max 40秒</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>20本ジャンプ (秒)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>194</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>192.3</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>2.585333803396926</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>2.388381567727891</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>106.5744295303867</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>173.2448340189443</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>47.70709676073247</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>458.0325458878194</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>422.6594448372514</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>14.71</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>185.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>192.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2.528615282047697</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1.183873353506731</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>82.33764562359215</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>107.274239826825</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>30.36385882707313</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>409.7674862479519</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>441.4677303471282</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>14.74</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>193.8</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>201.4</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>2.054483589760825</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1.194981028458592</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>148.4319587338939</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>48.25577474892893</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>114.9814643141153</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>397.7840303915982</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>376.4566533370113</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>14.83</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>182.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>219</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>3.480763619079396</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>3.100552355279349</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>62.13280508209084</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>13.57229722189109</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>70.77444812576111</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>434.2735740879584</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>481.5199125877456</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>15.18</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>185.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>214.1</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>3.801694421993019</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>2.902505313351801</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>134.4838423281365</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>177.0817821355906</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>176.1760022204953</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>387.1244673518185</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>450.0368191410124</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>15.06</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>197.8</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>194.3</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>2.923016237587091</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>1.104908936618417</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>96.44105502284231</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>123.0297045011407</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>48.50628269127003</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>441.3098170854842</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>446.4115688872848</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>14.825</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>181.4</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>206.8</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1.763506601488869</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>3.177744323552246</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>2.851693909157717</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>40.22539264573527</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>80.99827676926681</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>499.4579611382891</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>447.2437029412337</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>15.12</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>190.5</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>184.7</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>2.623955893333255</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>1.221269007812525</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>135.5663507285977</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>128.0827025825432</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>46.90590149649256</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>478.4397359968883</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>352.9732786861903</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>14.855</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>182</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>219.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>3.438332941413499</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>4.028876553389171</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>131.9661621794338</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>6.194713609334542</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>60.36715524925401</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>379.4327179312625</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>392.4054218455639</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>15.09</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>192.3</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>194.4</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>3.412079729133793</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>3.190050411849283</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>176.5715802277964</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>35.24549205390525</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>72.12376510609874</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>451.0026694523084</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>490.8968160837074</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>15.145</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>181.4</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>187.2</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>2.354085927453769</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>1.699134918296247</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>62.39767346163245</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>69.58582209905713</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>34.20936543631771</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>453.2667755914051</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>498.6090201680499</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>15.045</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>田中希湖</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>191</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>224</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>3.664411017691687</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>2.197503492342585</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>113.9201873946722</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>53.63826946160697</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>51.64236832632662</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>390.7932894354902</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>352.742158487055</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>15.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>